--- a/IN4RE/TestData/HR/ConfigureHR.xlsx
+++ b/IN4RE/TestData/HR/ConfigureHR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192AB8D0-2267-4A40-8281-7114EBACF52B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8A593C-9213-4D16-B97F-C2C1E99A9D68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>CheckListName</t>
   </si>
@@ -68,6 +68,36 @@
   </si>
   <si>
     <t>Relationship Name</t>
+  </si>
+  <si>
+    <t>Insurance Company</t>
+  </si>
+  <si>
+    <t>Insurance Policy Detail</t>
+  </si>
+  <si>
+    <t>Business Unit Master</t>
+  </si>
+  <si>
+    <t>Business Unit Name</t>
+  </si>
+  <si>
+    <t>Business Unit Description</t>
+  </si>
+  <si>
+    <t>Exit Reason</t>
+  </si>
+  <si>
+    <t>Exit Reason Description</t>
+  </si>
+  <si>
+    <t>Airlines Name</t>
+  </si>
+  <si>
+    <t>Corporate Rank</t>
+  </si>
+  <si>
+    <t>Corporate Grade</t>
   </si>
 </sst>
 </file>
@@ -423,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12:Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,9 +477,19 @@
     <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -495,11 +535,41 @@
       <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -515,8 +585,17 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -532,8 +611,17 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -549,8 +637,17 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -566,8 +663,17 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -583,6 +689,15 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
